--- a/summed_values_by_account.xlsx
+++ b/summed_values_by_account.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>528.33</v>
+        <v>4190.3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>509.88</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>364.3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>21569.62795419581</v>
+        <v>20275.30375058207</v>
       </c>
     </row>
     <row r="6">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>459.6</v>
+        <v>420.28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.83</v>
+        <v>20.89</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-33612.47098924046</v>
+        <v>-32973.43032513637</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>5496.13</v>
+        <v>1190</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>11049.65</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>759.73</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4813.6</v>
+        <v>9170</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0</v>
+        <v>807.76</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-8009</v>
+        <v>-2240.5</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>633.3200000000001</v>
+        <v>607.64</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-62489.80333349999</v>
+        <v>-56138.3533335</v>
       </c>
     </row>
     <row r="12">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-11.305064</v>
+        <v>-11.363064</v>
       </c>
     </row>
     <row r="13">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>7294.579999999998</v>
+        <v>7867.610000000001</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>3.870000000000001</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-4126.93462071</v>
+        <v>-2542.279068079999</v>
       </c>
     </row>
     <row r="17">
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-1843.62</v>
+        <v>-5501.92</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-1811.66</v>
+        <v>-1837.09</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-89003.93141602799</v>
+        <v>-68130.30323422799</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>12564.52</v>
+        <v>-3335.450000000001</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>-0.02</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>16232.5</v>
+        <v>16692.5</v>
       </c>
     </row>
     <row r="21">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-4066.400000000001</v>
+        <v>18785.52</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-2284.74</v>
+        <v>718.3299999999999</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>-6915.822019319999</v>
+        <v>798.2166777</v>
       </c>
     </row>
     <row r="22">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0</v>
+        <v>19082.38</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>125.49</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>11444.90625</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>14986.048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>25.25</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="25">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>3918.55</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>165.55</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>75697.27682038542</v>
+        <v>20032.77256716042</v>
       </c>
     </row>
     <row r="26">
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>212.6</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-393.62</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>-62048.89940380099</v>
+        <v>-64055.99940391001</v>
       </c>
     </row>
     <row r="27">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>5585.51</v>
+        <v>-12518.4</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -1223,6 +1223,31 @@
       </c>
       <c r="G31" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44330.07999999999</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>564.9399999999998</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>-156848.6854334119</v>
       </c>
     </row>
   </sheetData>
